--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tslp-Il7r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tslp-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tslp</t>
   </si>
   <si>
     <t>Il7r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.50242321654082</v>
+        <v>2.649954</v>
       </c>
       <c r="H2">
-        <v>2.50242321654082</v>
+        <v>7.949862</v>
       </c>
       <c r="I2">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198654</v>
       </c>
       <c r="J2">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198653</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>73.7960795831286</v>
+        <v>0.115185</v>
       </c>
       <c r="N2">
-        <v>73.7960795831286</v>
+        <v>0.345555</v>
       </c>
       <c r="O2">
-        <v>0.6657927525415271</v>
+        <v>0.0009796682944168203</v>
       </c>
       <c r="P2">
-        <v>0.6657927525415271</v>
+        <v>0.0009796682944168203</v>
       </c>
       <c r="Q2">
-        <v>184.669022838515</v>
+        <v>0.30523495149</v>
       </c>
       <c r="R2">
-        <v>184.669022838515</v>
+        <v>2.74711456341</v>
       </c>
       <c r="S2">
-        <v>0.5740497140426696</v>
+        <v>0.0007897200425338292</v>
       </c>
       <c r="T2">
-        <v>0.5740497140426696</v>
+        <v>0.000789720042533829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.50242321654082</v>
+        <v>2.649954</v>
       </c>
       <c r="H3">
-        <v>2.50242321654082</v>
+        <v>7.949862</v>
       </c>
       <c r="I3">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198654</v>
       </c>
       <c r="J3">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198653</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.0433359878989</v>
+        <v>75.29271333333334</v>
       </c>
       <c r="N3">
-        <v>37.0433359878989</v>
+        <v>225.87814</v>
       </c>
       <c r="O3">
-        <v>0.3342072474584729</v>
+        <v>0.640377514895874</v>
       </c>
       <c r="P3">
-        <v>0.3342072474584729</v>
+        <v>0.640377514895874</v>
       </c>
       <c r="Q3">
-        <v>92.69810399424027</v>
+        <v>199.52222686852</v>
       </c>
       <c r="R3">
-        <v>92.69810399424027</v>
+        <v>1795.70004181668</v>
       </c>
       <c r="S3">
-        <v>0.288155096465334</v>
+        <v>0.5162144791082816</v>
       </c>
       <c r="T3">
-        <v>0.288155096465334</v>
+        <v>0.5162144791082814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.399930361220378</v>
+        <v>2.649954</v>
       </c>
       <c r="H4">
-        <v>0.399930361220378</v>
+        <v>7.949862</v>
       </c>
       <c r="I4">
-        <v>0.1377951894919964</v>
+        <v>0.8061096261198654</v>
       </c>
       <c r="J4">
-        <v>0.1377951894919964</v>
+        <v>0.8061096261198653</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>73.7960795831286</v>
+        <v>42.16761233333333</v>
       </c>
       <c r="N4">
-        <v>73.7960795831286</v>
+        <v>126.502837</v>
       </c>
       <c r="O4">
-        <v>0.6657927525415271</v>
+        <v>0.3586428168097091</v>
       </c>
       <c r="P4">
-        <v>0.6657927525415271</v>
+        <v>0.3586428168097091</v>
       </c>
       <c r="Q4">
-        <v>29.51329276432838</v>
+        <v>111.742232973166</v>
       </c>
       <c r="R4">
-        <v>29.51329276432838</v>
+        <v>1005.680096758494</v>
       </c>
       <c r="S4">
-        <v>0.09174303849885762</v>
+        <v>0.28910542696905</v>
       </c>
       <c r="T4">
-        <v>0.09174303849885762</v>
+        <v>0.28910542696905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.409054</v>
+      </c>
+      <c r="H5">
+        <v>1.227162</v>
+      </c>
+      <c r="I5">
+        <v>0.1244332418611174</v>
+      </c>
+      <c r="J5">
+        <v>0.1244332418611173</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.115185</v>
+      </c>
+      <c r="N5">
+        <v>0.345555</v>
+      </c>
+      <c r="O5">
+        <v>0.0009796682944168203</v>
+      </c>
+      <c r="P5">
+        <v>0.0009796682944168203</v>
+      </c>
+      <c r="Q5">
+        <v>0.04711688499</v>
+      </c>
+      <c r="R5">
+        <v>0.42405196491</v>
+      </c>
+      <c r="S5">
+        <v>0.0001219033018228365</v>
+      </c>
+      <c r="T5">
+        <v>0.0001219033018228365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.409054</v>
+      </c>
+      <c r="H6">
+        <v>1.227162</v>
+      </c>
+      <c r="I6">
+        <v>0.1244332418611174</v>
+      </c>
+      <c r="J6">
+        <v>0.1244332418611173</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>75.29271333333334</v>
+      </c>
+      <c r="N6">
+        <v>225.87814</v>
+      </c>
+      <c r="O6">
+        <v>0.640377514895874</v>
+      </c>
+      <c r="P6">
+        <v>0.640377514895874</v>
+      </c>
+      <c r="Q6">
+        <v>30.79878555985333</v>
+      </c>
+      <c r="R6">
+        <v>277.18907003868</v>
+      </c>
+      <c r="S6">
+        <v>0.07968425019345958</v>
+      </c>
+      <c r="T6">
+        <v>0.07968425019345957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.409054</v>
+      </c>
+      <c r="H7">
+        <v>1.227162</v>
+      </c>
+      <c r="I7">
+        <v>0.1244332418611174</v>
+      </c>
+      <c r="J7">
+        <v>0.1244332418611173</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>42.16761233333333</v>
+      </c>
+      <c r="N7">
+        <v>126.502837</v>
+      </c>
+      <c r="O7">
+        <v>0.3586428168097091</v>
+      </c>
+      <c r="P7">
+        <v>0.3586428168097091</v>
+      </c>
+      <c r="Q7">
+        <v>17.24883049539933</v>
+      </c>
+      <c r="R7">
+        <v>155.239474458594</v>
+      </c>
+      <c r="S7">
+        <v>0.04462708836583494</v>
+      </c>
+      <c r="T7">
+        <v>0.04462708836583493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.399930361220378</v>
-      </c>
-      <c r="H5">
-        <v>0.399930361220378</v>
-      </c>
-      <c r="I5">
-        <v>0.1377951894919964</v>
-      </c>
-      <c r="J5">
-        <v>0.1377951894919964</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>37.0433359878989</v>
-      </c>
-      <c r="N5">
-        <v>37.0433359878989</v>
-      </c>
-      <c r="O5">
-        <v>0.3342072474584729</v>
-      </c>
-      <c r="P5">
-        <v>0.3342072474584729</v>
-      </c>
-      <c r="Q5">
-        <v>14.81475474244824</v>
-      </c>
-      <c r="R5">
-        <v>14.81475474244824</v>
-      </c>
-      <c r="S5">
-        <v>0.04605215099313881</v>
-      </c>
-      <c r="T5">
-        <v>0.04605215099313881</v>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.152407</v>
+      </c>
+      <c r="H8">
+        <v>0.457221</v>
+      </c>
+      <c r="I8">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="J8">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.115185</v>
+      </c>
+      <c r="N8">
+        <v>0.345555</v>
+      </c>
+      <c r="O8">
+        <v>0.0009796682944168203</v>
+      </c>
+      <c r="P8">
+        <v>0.0009796682944168203</v>
+      </c>
+      <c r="Q8">
+        <v>0.017555000295</v>
+      </c>
+      <c r="R8">
+        <v>0.157995002655</v>
+      </c>
+      <c r="S8">
+        <v>4.541922709694331E-05</v>
+      </c>
+      <c r="T8">
+        <v>4.541922709694331E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.152407</v>
+      </c>
+      <c r="H9">
+        <v>0.457221</v>
+      </c>
+      <c r="I9">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="J9">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>75.29271333333334</v>
+      </c>
+      <c r="N9">
+        <v>225.87814</v>
+      </c>
+      <c r="O9">
+        <v>0.640377514895874</v>
+      </c>
+      <c r="P9">
+        <v>0.640377514895874</v>
+      </c>
+      <c r="Q9">
+        <v>11.47513656099333</v>
+      </c>
+      <c r="R9">
+        <v>103.27622904894</v>
+      </c>
+      <c r="S9">
+        <v>0.0296890814396989</v>
+      </c>
+      <c r="T9">
+        <v>0.0296890814396989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.152407</v>
+      </c>
+      <c r="H10">
+        <v>0.457221</v>
+      </c>
+      <c r="I10">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="J10">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>42.16761233333333</v>
+      </c>
+      <c r="N10">
+        <v>126.502837</v>
+      </c>
+      <c r="O10">
+        <v>0.3586428168097091</v>
+      </c>
+      <c r="P10">
+        <v>0.3586428168097091</v>
+      </c>
+      <c r="Q10">
+        <v>6.426639292886333</v>
+      </c>
+      <c r="R10">
+        <v>57.839753635977</v>
+      </c>
+      <c r="S10">
+        <v>0.0166273417606766</v>
+      </c>
+      <c r="T10">
+        <v>0.0166273417606766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02438866666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.07316599999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.007418973675855766</v>
+      </c>
+      <c r="J11">
+        <v>0.007418973675855765</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.115185</v>
+      </c>
+      <c r="N11">
+        <v>0.345555</v>
+      </c>
+      <c r="O11">
+        <v>0.0009796682944168203</v>
+      </c>
+      <c r="P11">
+        <v>0.0009796682944168203</v>
+      </c>
+      <c r="Q11">
+        <v>0.00280920857</v>
+      </c>
+      <c r="R11">
+        <v>0.02528287713</v>
+      </c>
+      <c r="S11">
+        <v>7.268133287348906E-06</v>
+      </c>
+      <c r="T11">
+        <v>7.268133287348906E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02438866666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.07316599999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.007418973675855766</v>
+      </c>
+      <c r="J12">
+        <v>0.007418973675855765</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>75.29271333333334</v>
+      </c>
+      <c r="N12">
+        <v>225.87814</v>
+      </c>
+      <c r="O12">
+        <v>0.640377514895874</v>
+      </c>
+      <c r="P12">
+        <v>0.640377514895874</v>
+      </c>
+      <c r="Q12">
+        <v>1.836288887915556</v>
+      </c>
+      <c r="R12">
+        <v>16.52659999124</v>
+      </c>
+      <c r="S12">
+        <v>0.004750943925622423</v>
+      </c>
+      <c r="T12">
+        <v>0.004750943925622422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02438866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.07316599999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.007418973675855766</v>
+      </c>
+      <c r="J13">
+        <v>0.007418973675855765</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>42.16761233333333</v>
+      </c>
+      <c r="N13">
+        <v>126.502837</v>
+      </c>
+      <c r="O13">
+        <v>0.3586428168097091</v>
+      </c>
+      <c r="P13">
+        <v>0.3586428168097091</v>
+      </c>
+      <c r="Q13">
+        <v>1.028411841326889</v>
+      </c>
+      <c r="R13">
+        <v>9.255706571942</v>
+      </c>
+      <c r="S13">
+        <v>0.002660761616945993</v>
+      </c>
+      <c r="T13">
+        <v>0.002660761616945993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.05153333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.1546</v>
+      </c>
+      <c r="I14">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="J14">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.115185</v>
+      </c>
+      <c r="N14">
+        <v>0.345555</v>
+      </c>
+      <c r="O14">
+        <v>0.0009796682944168203</v>
+      </c>
+      <c r="P14">
+        <v>0.0009796682944168203</v>
+      </c>
+      <c r="Q14">
+        <v>0.005935866999999999</v>
+      </c>
+      <c r="R14">
+        <v>0.053422803</v>
+      </c>
+      <c r="S14">
+        <v>1.53575896758623E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.53575896758623E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.05153333333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.1546</v>
+      </c>
+      <c r="I15">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="J15">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>75.29271333333334</v>
+      </c>
+      <c r="N15">
+        <v>225.87814</v>
+      </c>
+      <c r="O15">
+        <v>0.640377514895874</v>
+      </c>
+      <c r="P15">
+        <v>0.640377514895874</v>
+      </c>
+      <c r="Q15">
+        <v>3.880084493777777</v>
+      </c>
+      <c r="R15">
+        <v>34.920760444</v>
+      </c>
+      <c r="S15">
+        <v>0.01003876022881156</v>
+      </c>
+      <c r="T15">
+        <v>0.01003876022881156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.05153333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.1546</v>
+      </c>
+      <c r="I16">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="J16">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>42.16761233333333</v>
+      </c>
+      <c r="N16">
+        <v>126.502837</v>
+      </c>
+      <c r="O16">
+        <v>0.3586428168097091</v>
+      </c>
+      <c r="P16">
+        <v>0.3586428168097091</v>
+      </c>
+      <c r="Q16">
+        <v>2.173037622244444</v>
+      </c>
+      <c r="R16">
+        <v>19.5573386002</v>
+      </c>
+      <c r="S16">
+        <v>0.005622198097201577</v>
+      </c>
+      <c r="T16">
+        <v>0.005622198097201578</v>
       </c>
     </row>
   </sheetData>
